--- a/data/trans_dic/P28C_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28C_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha pesado más respecto al último mes</t>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>23,34%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>20,36%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>21,28%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14,91%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>21,25%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,95; 35,52</t>
+          <t>17,94; 32,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 27,63</t>
+          <t>14,17; 27,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 18,7</t>
+          <t>6,88; 18,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 27,87</t>
+          <t>15,34; 32,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,73; 28,07</t>
+          <t>13,16; 27,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,88; 25,87</t>
+          <t>18,36; 36,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 24,64</t>
+          <t>14,59; 28,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,67; 31,16</t>
+          <t>12,74; 25,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 29,5</t>
+          <t>12,24; 24,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 24,3</t>
+          <t>13,74; 28,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,0</t>
+          <t>15,44; 30,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 27,19</t>
+          <t>14,33; 27,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 27,82</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,03; 23,8</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 19,54</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>16,87; 28,33</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16,75; 26,76</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>18,7; 30,24</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>19,76%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>23,85%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,38; 47,15</t>
+          <t>25,9; 45,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 31,07</t>
+          <t>14,87; 33,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,82</t>
+          <t>8,14; 17,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 34,66</t>
+          <t>7,13; 19,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,68; 38,86</t>
+          <t>13,44; 33,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 23,2</t>
+          <t>18,92; 39,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 26,0</t>
+          <t>24,52; 38,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 28,77</t>
+          <t>12,55; 22,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,73; 40,01</t>
+          <t>15,15; 25,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 25,65</t>
+          <t>19,67; 33,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,51; 19,45</t>
+          <t>14,66; 28,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,29; 28,88</t>
+          <t>14,96; 27,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>27,75; 40,6</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15,87; 26,92</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,28; 19,31</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 23,76</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 28,26</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>18,59; 31,06</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>16,56%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>32,91%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33,77%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>15,52%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>16,28%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,24%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>19,68%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>32,89%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>16,65%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>17,03%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>23,34%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>34,76%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>18,02%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,35; 40,63</t>
+          <t>28,04; 43,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 24,84</t>
+          <t>13,15; 24,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 27,18</t>
+          <t>12,25; 25,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 22,13</t>
+          <t>9,78; 19,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,57; 39,01</t>
+          <t>11,79; 22,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,72</t>
+          <t>11,07; 23,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 20,24</t>
+          <t>28,47; 39,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 25,44</t>
+          <t>11,74; 19,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,1; 37,36</t>
+          <t>12,6; 19,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 20,5</t>
+          <t>17,87; 27,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,87</t>
+          <t>14,84; 24,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 21,88</t>
+          <t>18,13; 30,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>30,69; 40,12</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 20,14</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 20,22</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>15,02; 22,13</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>14,6; 21,82</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 24,58</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18,49%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>21,33%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>32,78%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>17,95%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>16,0%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32,98%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>20,34%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,39; 35,65</t>
+          <t>24,22; 35,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 21,26</t>
+          <t>12,16; 20,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 18,96</t>
+          <t>9,55; 19,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 20,15</t>
+          <t>11,97; 25,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,63; 40,76</t>
+          <t>9,67; 19,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,62; 23,65</t>
+          <t>8,36; 18,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 22,73</t>
+          <t>31,13; 41,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 26,79</t>
+          <t>15,02; 23,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,64; 36,7</t>
+          <t>14,43; 22,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,24</t>
+          <t>19,32; 28,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 19,85</t>
+          <t>15,84; 27,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 22,31</t>
+          <t>17,04; 27,9</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>28,9; 37,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>15,05; 21,0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 19,52</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>17,04; 25,86</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,34; 21,6</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 20,31</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>23,27%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>35,04%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>21,11%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>29,61%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>17,59%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>16,86%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29,66%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>22,15%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>17,19%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,66; 30,23</t>
+          <t>18,89; 30,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,93; 21,3</t>
+          <t>12,43; 21,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,22; 19,04</t>
+          <t>10,16; 18,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,97; 29,83</t>
+          <t>4,84; 11,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,11; 41,61</t>
+          <t>17,5; 29,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,77; 24,34</t>
+          <t>10,91; 21,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 24,84</t>
+          <t>28,79; 41,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,69; 26,7</t>
+          <t>14,31; 24,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,42; 34,16</t>
+          <t>15,13; 24,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,15; 21,02</t>
+          <t>11,72; 22,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 20,33</t>
+          <t>16,42; 27,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,18; 26,91</t>
+          <t>13,89; 24,17</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>25,2; 34,19</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>14,7; 21,24</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,01; 20,41</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 15,68</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 26,82</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 21,04</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>13,73%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26,29%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11,65%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>11,54%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>25,28%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>13,78%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>14,38%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>12,47%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,09; 31,19</t>
+          <t>18,72; 31,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 17,08</t>
+          <t>8,13; 17,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,97; 16,92</t>
+          <t>7,97; 17,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 20,93</t>
+          <t>1,48; 9,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 32,88</t>
+          <t>9,06; 20,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,48</t>
+          <t>8,12; 19,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,66; 19,85</t>
+          <t>21,62; 34,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 17,38</t>
+          <t>11,6; 21,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,04; 30,14</t>
+          <t>11,88; 21,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 17,38</t>
+          <t>6,61; 19,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,71; 17,32</t>
+          <t>7,16; 17,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,98; 16,98</t>
+          <t>6,89; 17,29</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>22,14; 30,72</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 18,43</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 17,58</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 12,76</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 16,89</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 16,34</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>18,19%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>30,65%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>19,02%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>29,9%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>17,34%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>15,72%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>19,09%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>30,35%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>17,45%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>18,6%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,07; 32,17</t>
+          <t>26,96; 33,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,89</t>
+          <t>15,17; 20,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 16,06</t>
+          <t>11,48; 15,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 21,45</t>
+          <t>11,09; 16,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,97; 33,2</t>
+          <t>15,8; 21,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,46; 19,52</t>
+          <t>15,75; 21,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,81; 19,85</t>
+          <t>28,52; 33,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,68; 21,4</t>
+          <t>15,6; 19,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,03</t>
+          <t>16,07; 19,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 19,01</t>
+          <t>17,78; 22,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,45; 17,36</t>
+          <t>16,68; 21,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,82; 20,46</t>
+          <t>16,75; 21,53</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>28,46; 32,46</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 19,04</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 17,32</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 18,53</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 20,54</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 20,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,38%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>119022</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103296</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61686</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>106155</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8565</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11848</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>97048</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>92536</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>89846</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>95213</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8059</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7860</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>216070</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>195832</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>151533</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>201368</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16624</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>19708</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>85749; 156247</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>73705; 141708</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34692; 94979</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>69738; 149890</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5539; 11761</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8090; 16030</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67521; 130010</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65614; 133342</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>62639; 122813</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64167; 132804</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5580; 11146</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5485; 10646</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>168607; 261800</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>155586; 246308</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>112862; 198598</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>155504; 261142</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>13104; 20932</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>15398; 24904</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>199402</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>122541</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71296</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>72603</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10903</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12664</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>160124</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87162</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>103932</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>125824</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9783</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9590</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>359525</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>209703</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>175228</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>198427</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>20686</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>22254</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>145886; 258374</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>82592; 187962</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48105; 104461</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40455; 111457</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6649; 16792</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9003; 18578</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>125893; 199996</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63450; 115352</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>77988; 132977</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>97778; 164331</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6808; 13132</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6840; 12633</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>298815; 437116</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>168377; 285686</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>135804; 213557</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>150224; 252895</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>15203; 27099</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>17347; 28974</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>244647</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>119699</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>115120</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>92453</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9970</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9871</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>239012</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>110643</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>115361</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>162022</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10403</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12623</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>483659</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>230343</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>230481</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>254475</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>20373</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>22494</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>191687; 296775</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>89169; 163756</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83010; 171186</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>65236; 128359</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7096; 13388</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6694; 14458</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>201506; 277303</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>83735; 136199</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>89520; 139964</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>127107; 198832</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7845; 13206</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9809; 16315</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>427085; 558199</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>189027; 280199</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>189997; 280678</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>206973; 305037</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>16504; 24675</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>17618; 28163</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>189982</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>105575</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>86001</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>108677</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8429</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6774</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>247202</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>128564</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>120456</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>154077</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10997</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11338</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>437185</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>234139</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>206457</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>262754</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>19427</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>18113</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>154987; 227837</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78527; 134518</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>60592; 120638</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>77558; 162911</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5547; 11277</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4615; 9951</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>213464; 286313</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>99824; 158447</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>94014; 148270</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>124414; 185732</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8170; 14017</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8918; 14599</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>383071; 490697</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>197223; 275223</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>170756; 251089</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>220103; 334071</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>15625; 23534</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>14263; 21848</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>120460</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>83043</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>68781</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36218</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10298</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6879</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>174379</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96126</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>99774</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>85951</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10103</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8543</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>294840</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>179169</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>168555</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>122170</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>20401</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>15422</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>93564; 151982</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62375; 108697</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50135; 93455</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23249; 57291</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7745; 13112</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4778; 9409</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>143649; 207593</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>71739; 122319</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>77331; 126114</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>59504; 114999</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7855; 13049</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6375; 11095</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>250498; 339954</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>147457; 213056</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>140735; 205093</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>91020; 155037</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>17003; 24702</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>12233; 18873</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>134560</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>64564</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>64863</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>26169</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6361</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5779</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>191653</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>105946</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>109606</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>78425</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>326213</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>170510</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>174469</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>104594</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>13593</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>12783</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>100741; 168542</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42451; 92559</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42412; 94352</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8222; 52648</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4195; 9710</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3601; 8865</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>153501; 242604</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>77260; 143844</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>80904; 145918</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>44499; 132527</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4486; 10833</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4271; 10722</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>276335; 383466</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>131413; 218999</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>135373; 213308</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>65260; 156903</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9567; 18406</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>9254; 17375</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>761.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1008073</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>598717</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>467748</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>442276</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>54527</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>53815</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1109418</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>620978</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>638975</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>701511</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>56577</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>56959</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2117491</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1219695</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1106723</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1143787</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>111104</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>110774</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>916122; 1132231</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>519449; 690908</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>394338; 546971</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>374112; 541638</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>47352; 63727</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>46553; 63252</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1020748; 1199355</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>556299; 690434</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>575228; 706592</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>622284; 801061</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>49612; 64578</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>49958; 64223</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1985928; 2264678</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1113211; 1330514</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1002724; 1214753</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1024868; 1274011</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>101163; 122640</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>100845; 123207</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
